--- a/Assets/Excel/test1.xlsx
+++ b/Assets/Excel/test1.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\RPG-GameClient\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D211B02-EC8E-47FF-B503-C9539D63F2EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA5DBDD5-3DD1-437B-8FE4-0FFD8D480D9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="3630" windowWidth="21600" windowHeight="11775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3555" windowWidth="21600" windowHeight="11775" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EquipmentTable" sheetId="1" r:id="rId1"/>
+    <sheet name="ItemTable" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
   <si>
     <t>id</t>
   </si>
@@ -64,6 +65,57 @@
   </si>
   <si>
     <t>低攻击</t>
+  </si>
+  <si>
+    <t>element</t>
+  </si>
+  <si>
+    <t>desc</t>
+  </si>
+  <si>
+    <t>火灵珠</t>
+  </si>
+  <si>
+    <t>火</t>
+  </si>
+  <si>
+    <t>发射火焰</t>
+  </si>
+  <si>
+    <t>水灵珠</t>
+  </si>
+  <si>
+    <t>水</t>
+  </si>
+  <si>
+    <t>释放洪水</t>
+  </si>
+  <si>
+    <t>土灵珠</t>
+  </si>
+  <si>
+    <t>土</t>
+  </si>
+  <si>
+    <t>升起土墙</t>
+  </si>
+  <si>
+    <t>木灵珠</t>
+  </si>
+  <si>
+    <t>木</t>
+  </si>
+  <si>
+    <t>植被生长</t>
+  </si>
+  <si>
+    <t>金灵珠</t>
+  </si>
+  <si>
+    <t>金</t>
+  </si>
+  <si>
+    <t>操控金属</t>
   </si>
 </sst>
 </file>
@@ -390,7 +442,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
@@ -482,4 +534,117 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C70CC13-239F-4989-950F-8AA18C792596}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>35001</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>35002</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>35003</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>35004</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>35005</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>